--- a/mc-table-crossed.xlsx
+++ b/mc-table-crossed.xlsx
@@ -947,7 +947,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -962,7 +962,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="Z2" s="2" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -997,7 +997,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AG2" s="1" t="inlineStr">
+      <c r="AG2" s="2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1042,12 +1042,12 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AP2" s="2" t="inlineStr">
+      <c r="AP2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AQ2" s="1" t="inlineStr">
+      <c r="AQ2" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1057,12 +1057,12 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AS2" s="2" t="inlineStr">
+      <c r="AS2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AT2" s="2" t="inlineStr">
+      <c r="AT2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1072,12 +1072,12 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AV2" s="2" t="inlineStr">
+      <c r="AV2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AW2" s="2" t="inlineStr">
+      <c r="AW2" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1092,7 +1092,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AZ2" s="1" t="inlineStr">
+      <c r="AZ2" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1102,7 +1102,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="BB2" s="1" t="inlineStr">
+      <c r="BB2" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1122,27 +1122,27 @@
           <t>00000</t>
         </is>
       </c>
-      <c r="BF2" s="2" t="inlineStr">
+      <c r="BF2" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BG2" s="1" t="inlineStr">
+      <c r="BG2" s="2" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BH2" s="2" t="inlineStr">
+      <c r="BH2" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BI2" s="2" t="inlineStr">
+      <c r="BI2" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BJ2" s="1" t="inlineStr">
+      <c r="BJ2" s="2" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
@@ -1269,7 +1269,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="W3" s="2" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1284,7 +1284,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="Z3" s="2" t="inlineStr">
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1319,7 +1319,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AG3" s="1" t="inlineStr">
+      <c r="AG3" s="2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1364,12 +1364,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AP3" s="2" t="inlineStr">
+      <c r="AP3" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AQ3" s="1" t="inlineStr">
+      <c r="AQ3" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1379,12 +1379,12 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AS3" s="2" t="inlineStr">
+      <c r="AS3" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AT3" s="2" t="inlineStr">
+      <c r="AT3" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -1394,12 +1394,12 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AV3" s="2" t="inlineStr">
+      <c r="AV3" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AW3" s="2" t="inlineStr">
+      <c r="AW3" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -1414,7 +1414,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AZ3" s="1" t="inlineStr">
+      <c r="AZ3" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1424,7 +1424,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="BB3" s="1" t="inlineStr">
+      <c r="BB3" s="2" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -1444,17 +1444,17 @@
           <t>00000</t>
         </is>
       </c>
-      <c r="BF3" s="2" t="inlineStr">
+      <c r="BF3" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BG3" s="1" t="inlineStr">
+      <c r="BG3" s="2" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BH3" s="2" t="inlineStr">
+      <c r="BH3" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
@@ -1464,7 +1464,7 @@
           <t>00001</t>
         </is>
       </c>
-      <c r="BJ3" s="1" t="inlineStr">
+      <c r="BJ3" s="2" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
@@ -1591,12 +1591,12 @@
           <t>000</t>
         </is>
       </c>
-      <c r="W4" s="2" t="inlineStr">
+      <c r="W4" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="X4" s="2" t="inlineStr">
+      <c r="X4" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -1606,7 +1606,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="Z4" s="2" t="inlineStr">
+      <c r="Z4" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -1686,12 +1686,12 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AP4" s="2" t="inlineStr">
+      <c r="AP4" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AQ4" s="2" t="inlineStr">
+      <c r="AQ4" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -1701,27 +1701,27 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AS4" s="2" t="inlineStr">
+      <c r="AS4" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AT4" s="2" t="inlineStr">
+      <c r="AT4" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AU4" s="2" t="inlineStr">
+      <c r="AU4" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="AV4" s="2" t="inlineStr">
+      <c r="AV4" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AW4" s="2" t="inlineStr">
+      <c r="AW4" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1761,27 +1761,27 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="BE4" s="2" t="inlineStr">
+      <c r="BE4" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BF4" s="2" t="inlineStr">
+      <c r="BF4" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BG4" s="2" t="inlineStr">
+      <c r="BG4" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BH4" s="2" t="inlineStr">
+      <c r="BH4" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BI4" s="2" t="inlineStr">
+      <c r="BI4" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
@@ -1791,14 +1791,14 @@
           <t>00010</t>
         </is>
       </c>
-      <c r="BK4" s="2" t="inlineStr">
+      <c r="BK4" s="1" t="inlineStr">
         <is>
           <t>000010</t>
         </is>
       </c>
-      <c r="BL4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL4" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1913,12 +1913,12 @@
           <t>000</t>
         </is>
       </c>
-      <c r="W5" s="2" t="inlineStr">
+      <c r="W5" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="X5" s="2" t="inlineStr">
+      <c r="X5" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -1928,7 +1928,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="Z5" s="2" t="inlineStr">
+      <c r="Z5" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -2008,12 +2008,12 @@
           <t>011</t>
         </is>
       </c>
-      <c r="AP5" s="2" t="inlineStr">
+      <c r="AP5" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AQ5" s="2" t="inlineStr">
+      <c r="AQ5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -2023,27 +2023,27 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AS5" s="2" t="inlineStr">
+      <c r="AS5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AT5" s="2" t="inlineStr">
+      <c r="AT5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AU5" s="2" t="inlineStr">
+      <c r="AU5" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
       </c>
-      <c r="AV5" s="2" t="inlineStr">
+      <c r="AV5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AW5" s="2" t="inlineStr">
+      <c r="AW5" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -2083,27 +2083,27 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BE5" s="2" t="inlineStr">
+      <c r="BE5" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BF5" s="2" t="inlineStr">
+      <c r="BF5" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BG5" s="2" t="inlineStr">
+      <c r="BG5" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="BH5" s="2" t="inlineStr">
+      <c r="BH5" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="BI5" s="2" t="inlineStr">
+      <c r="BI5" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
@@ -2113,14 +2113,14 @@
           <t>00011</t>
         </is>
       </c>
-      <c r="BK5" s="2" t="inlineStr">
+      <c r="BK5" s="1" t="inlineStr">
         <is>
           <t>000011</t>
         </is>
       </c>
-      <c r="BL5" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL5" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AG6" s="1" t="inlineStr">
+      <c r="AG6" s="2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -2335,7 +2335,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AQ6" s="1" t="inlineStr">
+      <c r="AQ6" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -2365,7 +2365,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AW6" s="1" t="inlineStr">
+      <c r="AW6" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -2380,17 +2380,17 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="AZ6" s="1" t="inlineStr">
+      <c r="AZ6" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="BA6" s="1" t="inlineStr">
+      <c r="BA6" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="BB6" s="1" t="inlineStr">
+      <c r="BB6" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -2405,17 +2405,17 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="BE6" s="1" t="inlineStr">
+      <c r="BE6" s="2" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BF6" s="1" t="inlineStr">
+      <c r="BF6" s="2" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BG6" s="1" t="inlineStr">
+      <c r="BG6" s="2" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
@@ -2425,24 +2425,24 @@
           <t>00100</t>
         </is>
       </c>
-      <c r="BI6" s="1" t="inlineStr">
+      <c r="BI6" s="2" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BJ6" s="1" t="inlineStr">
+      <c r="BJ6" s="2" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BK6" s="1" t="inlineStr">
+      <c r="BK6" s="2" t="inlineStr">
         <is>
           <t>000100</t>
         </is>
       </c>
-      <c r="BL6" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AG7" s="1" t="inlineStr">
+      <c r="AG7" s="2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -2657,7 +2657,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AQ7" s="1" t="inlineStr">
+      <c r="AQ7" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -2702,7 +2702,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AZ7" s="1" t="inlineStr">
+      <c r="AZ7" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -2712,7 +2712,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BB7" s="1" t="inlineStr">
+      <c r="BB7" s="2" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -2727,7 +2727,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="BE7" s="1" t="inlineStr">
+      <c r="BE7" s="2" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
@@ -2737,7 +2737,7 @@
           <t>00011</t>
         </is>
       </c>
-      <c r="BG7" s="1" t="inlineStr">
+      <c r="BG7" s="2" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
@@ -2752,19 +2752,19 @@
           <t>00101</t>
         </is>
       </c>
-      <c r="BJ7" s="1" t="inlineStr">
+      <c r="BJ7" s="2" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
       </c>
-      <c r="BK7" s="1" t="inlineStr">
+      <c r="BK7" s="2" t="inlineStr">
         <is>
           <t>000101</t>
         </is>
       </c>
-      <c r="BL7" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="X8" s="2" t="inlineStr">
+      <c r="X8" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -2969,7 +2969,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AO8" s="1" t="inlineStr">
+      <c r="AO8" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -2979,7 +2979,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AQ8" s="2" t="inlineStr">
+      <c r="AQ8" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -2989,7 +2989,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="AS8" s="2" t="inlineStr">
+      <c r="AS8" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -2999,7 +2999,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AU8" s="2" t="inlineStr">
+      <c r="AU8" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3009,7 +3009,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AW8" s="1" t="inlineStr">
+      <c r="AW8" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3019,7 +3019,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AY8" s="1" t="inlineStr">
+      <c r="AY8" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -3029,7 +3029,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BA8" s="1" t="inlineStr">
+      <c r="BA8" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3039,27 +3039,27 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="BC8" s="1" t="inlineStr">
+      <c r="BC8" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BD8" s="1" t="inlineStr">
+      <c r="BD8" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BE8" s="2" t="inlineStr">
+      <c r="BE8" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="BF8" s="1" t="inlineStr">
+      <c r="BF8" s="2" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BG8" s="2" t="inlineStr">
+      <c r="BG8" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
@@ -3069,12 +3069,12 @@
           <t>00110</t>
         </is>
       </c>
-      <c r="BI8" s="1" t="inlineStr">
+      <c r="BI8" s="2" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
       </c>
-      <c r="BJ8" s="1" t="inlineStr">
+      <c r="BJ8" s="2" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
@@ -3206,7 +3206,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="X9" s="2" t="inlineStr">
+      <c r="X9" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -3301,7 +3301,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AQ9" s="2" t="inlineStr">
+      <c r="AQ9" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -3311,7 +3311,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="AS9" s="2" t="inlineStr">
+      <c r="AS9" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -3321,7 +3321,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AU9" s="2" t="inlineStr">
+      <c r="AU9" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -3371,7 +3371,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="BE9" s="2" t="inlineStr">
+      <c r="BE9" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
@@ -3381,12 +3381,12 @@
           <t>00011</t>
         </is>
       </c>
-      <c r="BG9" s="2" t="inlineStr">
+      <c r="BG9" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
       </c>
-      <c r="BH9" s="2" t="inlineStr">
+      <c r="BH9" s="1" t="inlineStr">
         <is>
           <t>00111</t>
         </is>
@@ -3401,14 +3401,14 @@
           <t>00111</t>
         </is>
       </c>
-      <c r="BK9" s="2" t="inlineStr">
+      <c r="BK9" s="1" t="inlineStr">
         <is>
           <t>000111</t>
         </is>
       </c>
-      <c r="BL9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL9" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="W10" s="2" t="inlineStr">
+      <c r="W10" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -3618,7 +3618,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AP10" s="2" t="inlineStr">
+      <c r="AP10" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3633,12 +3633,12 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AS10" s="2" t="inlineStr">
+      <c r="AS10" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AT10" s="2" t="inlineStr">
+      <c r="AT10" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -3693,12 +3693,12 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="BE10" s="2" t="inlineStr">
+      <c r="BE10" s="1" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BF10" s="2" t="inlineStr">
+      <c r="BF10" s="1" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
@@ -3708,7 +3708,7 @@
           <t>00100</t>
         </is>
       </c>
-      <c r="BH10" s="2" t="inlineStr">
+      <c r="BH10" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
@@ -3723,14 +3723,14 @@
           <t>01000</t>
         </is>
       </c>
-      <c r="BK10" s="2" t="inlineStr">
+      <c r="BK10" s="1" t="inlineStr">
         <is>
           <t>001000</t>
         </is>
       </c>
-      <c r="BL10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL10" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="W11" s="2" t="inlineStr">
+      <c r="W11" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -3940,7 +3940,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AP11" s="2" t="inlineStr">
+      <c r="AP11" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -3955,12 +3955,12 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AS11" s="2" t="inlineStr">
+      <c r="AS11" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AT11" s="2" t="inlineStr">
+      <c r="AT11" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -4015,12 +4015,12 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="BE11" s="2" t="inlineStr">
+      <c r="BE11" s="1" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BF11" s="2" t="inlineStr">
+      <c r="BF11" s="1" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
@@ -4030,7 +4030,7 @@
           <t>00101</t>
         </is>
       </c>
-      <c r="BH11" s="2" t="inlineStr">
+      <c r="BH11" s="1" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
@@ -4045,14 +4045,14 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BK11" s="2" t="inlineStr">
+      <c r="BK11" s="1" t="inlineStr">
         <is>
           <t>001001</t>
         </is>
       </c>
-      <c r="BL11" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL11" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4167,12 +4167,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="W12" s="2" t="inlineStr">
+      <c r="W12" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="X12" s="2" t="inlineStr">
+      <c r="X12" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -4262,12 +4262,12 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AP12" s="2" t="inlineStr">
+      <c r="AP12" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="AQ12" s="2" t="inlineStr">
+      <c r="AQ12" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -4277,17 +4277,17 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AS12" s="2" t="inlineStr">
+      <c r="AS12" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AT12" s="2" t="inlineStr">
+      <c r="AT12" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AU12" s="2" t="inlineStr">
+      <c r="AU12" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -4337,22 +4337,22 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BE12" s="2" t="inlineStr">
+      <c r="BE12" s="1" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
       </c>
-      <c r="BF12" s="2" t="inlineStr">
+      <c r="BF12" s="1" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BG12" s="2" t="inlineStr">
+      <c r="BG12" s="1" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
       </c>
-      <c r="BH12" s="2" t="inlineStr">
+      <c r="BH12" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
@@ -4367,14 +4367,14 @@
           <t>01010</t>
         </is>
       </c>
-      <c r="BK12" s="2" t="inlineStr">
+      <c r="BK12" s="1" t="inlineStr">
         <is>
           <t>001010</t>
         </is>
       </c>
-      <c r="BL12" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4489,12 +4489,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="W13" s="2" t="inlineStr">
+      <c r="W13" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="X13" s="2" t="inlineStr">
+      <c r="X13" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -4584,12 +4584,12 @@
           <t>011</t>
         </is>
       </c>
-      <c r="AP13" s="2" t="inlineStr">
+      <c r="AP13" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="AQ13" s="2" t="inlineStr">
+      <c r="AQ13" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -4599,17 +4599,17 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AS13" s="2" t="inlineStr">
+      <c r="AS13" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AT13" s="2" t="inlineStr">
+      <c r="AT13" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AU13" s="2" t="inlineStr">
+      <c r="AU13" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -4659,22 +4659,22 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="BE13" s="2" t="inlineStr">
+      <c r="BE13" s="1" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
       </c>
-      <c r="BF13" s="2" t="inlineStr">
+      <c r="BF13" s="1" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
       </c>
-      <c r="BG13" s="2" t="inlineStr">
+      <c r="BG13" s="1" t="inlineStr">
         <is>
           <t>00111</t>
         </is>
       </c>
-      <c r="BH13" s="2" t="inlineStr">
+      <c r="BH13" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
@@ -4689,14 +4689,14 @@
           <t>01011</t>
         </is>
       </c>
-      <c r="BK13" s="2" t="inlineStr">
+      <c r="BK13" s="1" t="inlineStr">
         <is>
           <t>001011</t>
         </is>
       </c>
-      <c r="BL13" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL13" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="X16" s="2" t="inlineStr">
+      <c r="X16" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -5545,7 +5545,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AO16" s="1" t="inlineStr">
+      <c r="AO16" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -5555,7 +5555,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AQ16" s="2" t="inlineStr">
+      <c r="AQ16" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5565,7 +5565,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AS16" s="2" t="inlineStr">
+      <c r="AS16" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5575,7 +5575,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AU16" s="2" t="inlineStr">
+      <c r="AU16" s="1" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -5595,12 +5595,12 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AY16" s="1" t="inlineStr">
+      <c r="AY16" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="AZ16" s="1" t="inlineStr">
+      <c r="AZ16" s="2" t="inlineStr">
         <is>
           <t>0111</t>
         </is>
@@ -5615,12 +5615,12 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="BC16" s="1" t="inlineStr">
+      <c r="BC16" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BD16" s="1" t="inlineStr">
+      <c r="BD16" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -5635,7 +5635,7 @@
           <t>00110</t>
         </is>
       </c>
-      <c r="BG16" s="2" t="inlineStr">
+      <c r="BG16" s="1" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
@@ -5645,12 +5645,12 @@
           <t>00110</t>
         </is>
       </c>
-      <c r="BI16" s="1" t="inlineStr">
+      <c r="BI16" s="2" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BJ16" s="1" t="inlineStr">
+      <c r="BJ16" s="2" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
@@ -5782,7 +5782,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="X17" s="2" t="inlineStr">
+      <c r="X17" s="1" t="inlineStr">
         <is>
           <t>001</t>
         </is>
@@ -5877,7 +5877,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AQ17" s="2" t="inlineStr">
+      <c r="AQ17" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5887,7 +5887,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AS17" s="2" t="inlineStr">
+      <c r="AS17" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5897,7 +5897,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AU17" s="2" t="inlineStr">
+      <c r="AU17" s="1" t="inlineStr">
         <is>
           <t>0011</t>
         </is>
@@ -5922,7 +5922,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AZ17" s="1" t="inlineStr">
+      <c r="AZ17" s="2" t="inlineStr">
         <is>
           <t>0111</t>
         </is>
@@ -5957,12 +5957,12 @@
           <t>00111</t>
         </is>
       </c>
-      <c r="BG17" s="2" t="inlineStr">
+      <c r="BG17" s="1" t="inlineStr">
         <is>
           <t>00111</t>
         </is>
       </c>
-      <c r="BH17" s="2" t="inlineStr">
+      <c r="BH17" s="1" t="inlineStr">
         <is>
           <t>00111</t>
         </is>
@@ -5972,7 +5972,7 @@
           <t>01111</t>
         </is>
       </c>
-      <c r="BJ17" s="1" t="inlineStr">
+      <c r="BJ17" s="2" t="inlineStr">
         <is>
           <t>01111</t>
         </is>
@@ -6114,7 +6114,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="Z18" s="2" t="inlineStr">
+      <c r="Z18" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -6194,12 +6194,12 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AP18" s="2" t="inlineStr">
+      <c r="AP18" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
       </c>
-      <c r="AQ18" s="2" t="inlineStr">
+      <c r="AQ18" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
@@ -6224,12 +6224,12 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="AV18" s="2" t="inlineStr">
+      <c r="AV18" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AW18" s="2" t="inlineStr">
+      <c r="AW18" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -6269,17 +6269,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="BE18" s="2" t="inlineStr">
+      <c r="BE18" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BF18" s="2" t="inlineStr">
+      <c r="BF18" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BG18" s="2" t="inlineStr">
+      <c r="BG18" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
@@ -6289,7 +6289,7 @@
           <t>01000</t>
         </is>
       </c>
-      <c r="BI18" s="2" t="inlineStr">
+      <c r="BI18" s="1" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
@@ -6299,14 +6299,14 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BK18" s="2" t="inlineStr">
+      <c r="BK18" s="1" t="inlineStr">
         <is>
           <t>010000</t>
         </is>
       </c>
-      <c r="BL18" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL18" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="Z19" s="2" t="inlineStr">
+      <c r="Z19" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -6516,12 +6516,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AP19" s="2" t="inlineStr">
+      <c r="AP19" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
       </c>
-      <c r="AQ19" s="2" t="inlineStr">
+      <c r="AQ19" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
@@ -6546,12 +6546,12 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AV19" s="2" t="inlineStr">
+      <c r="AV19" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AW19" s="2" t="inlineStr">
+      <c r="AW19" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -6591,7 +6591,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="BE19" s="2" t="inlineStr">
+      <c r="BE19" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
@@ -6601,7 +6601,7 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BG19" s="2" t="inlineStr">
+      <c r="BG19" s="1" t="inlineStr">
         <is>
           <t>01001</t>
         </is>
@@ -6758,7 +6758,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="Z20" s="2" t="inlineStr">
+      <c r="Z20" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -6838,12 +6838,12 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AP20" s="2" t="inlineStr">
+      <c r="AP20" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
       </c>
-      <c r="AQ20" s="1" t="inlineStr">
+      <c r="AQ20" s="2" t="inlineStr">
         <is>
           <t>0101</t>
         </is>
@@ -6868,12 +6868,12 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AV20" s="2" t="inlineStr">
+      <c r="AV20" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AW20" s="2" t="inlineStr">
+      <c r="AW20" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -6888,7 +6888,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AZ20" s="2" t="inlineStr">
+      <c r="AZ20" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -6918,12 +6918,12 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BF20" s="2" t="inlineStr">
+      <c r="BF20" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BG20" s="1" t="inlineStr">
+      <c r="BG20" s="2" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
@@ -6933,12 +6933,12 @@
           <t>01010</t>
         </is>
       </c>
-      <c r="BI20" s="2" t="inlineStr">
+      <c r="BI20" s="1" t="inlineStr">
         <is>
           <t>00010</t>
         </is>
       </c>
-      <c r="BJ20" s="2" t="inlineStr">
+      <c r="BJ20" s="1" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
@@ -7080,7 +7080,7 @@
           <t>011</t>
         </is>
       </c>
-      <c r="Z21" s="2" t="inlineStr">
+      <c r="Z21" s="1" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -7160,12 +7160,12 @@
           <t>011</t>
         </is>
       </c>
-      <c r="AP21" s="2" t="inlineStr">
+      <c r="AP21" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
       </c>
-      <c r="AQ21" s="1" t="inlineStr">
+      <c r="AQ21" s="2" t="inlineStr">
         <is>
           <t>0101</t>
         </is>
@@ -7190,12 +7190,12 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AV21" s="2" t="inlineStr">
+      <c r="AV21" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="AW21" s="2" t="inlineStr">
+      <c r="AW21" s="1" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -7210,7 +7210,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AZ21" s="2" t="inlineStr">
+      <c r="AZ21" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -7220,7 +7220,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="BB21" s="1" t="inlineStr">
+      <c r="BB21" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -7245,17 +7245,17 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BG21" s="1" t="inlineStr">
+      <c r="BG21" s="2" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
       </c>
-      <c r="BH21" s="1" t="inlineStr">
+      <c r="BH21" s="2" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
       </c>
-      <c r="BI21" s="2" t="inlineStr">
+      <c r="BI21" s="1" t="inlineStr">
         <is>
           <t>00011</t>
         </is>
@@ -7487,7 +7487,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AQ22" s="2" t="inlineStr">
+      <c r="AQ22" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
@@ -7502,7 +7502,7 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AT22" s="1" t="inlineStr">
+      <c r="AT22" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -7517,7 +7517,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AW22" s="1" t="inlineStr">
+      <c r="AW22" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -7532,7 +7532,7 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="AZ22" s="2" t="inlineStr">
+      <c r="AZ22" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -7557,32 +7557,32 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="BE22" s="2" t="inlineStr">
+      <c r="BE22" s="1" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
       </c>
-      <c r="BF22" s="1" t="inlineStr">
+      <c r="BF22" s="2" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
       </c>
-      <c r="BG22" s="2" t="inlineStr">
+      <c r="BG22" s="1" t="inlineStr">
         <is>
           <t>01000</t>
         </is>
       </c>
-      <c r="BH22" s="1" t="inlineStr">
+      <c r="BH22" s="2" t="inlineStr">
         <is>
           <t>01100</t>
         </is>
       </c>
-      <c r="BI22" s="1" t="inlineStr">
+      <c r="BI22" s="2" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
       </c>
-      <c r="BJ22" s="2" t="inlineStr">
+      <c r="BJ22" s="1" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
@@ -7809,7 +7809,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AQ23" s="2" t="inlineStr">
+      <c r="AQ23" s="1" t="inlineStr">
         <is>
           <t>0100</t>
         </is>
@@ -7854,7 +7854,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AZ23" s="2" t="inlineStr">
+      <c r="AZ23" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -7879,7 +7879,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="BE23" s="2" t="inlineStr">
+      <c r="BE23" s="1" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
@@ -7889,7 +7889,7 @@
           <t>01011</t>
         </is>
       </c>
-      <c r="BG23" s="2" t="inlineStr">
+      <c r="BG23" s="1" t="inlineStr">
         <is>
           <t>01001</t>
         </is>
@@ -7904,19 +7904,19 @@
           <t>00101</t>
         </is>
       </c>
-      <c r="BJ23" s="2" t="inlineStr">
+      <c r="BJ23" s="1" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BK23" s="2" t="inlineStr">
+      <c r="BK23" s="1" t="inlineStr">
         <is>
           <t>010101</t>
         </is>
       </c>
-      <c r="BL23" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL23" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AO24" s="1" t="inlineStr">
+      <c r="AO24" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -8131,7 +8131,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AQ24" s="1" t="inlineStr">
+      <c r="AQ24" s="2" t="inlineStr">
         <is>
           <t>0101</t>
         </is>
@@ -8146,7 +8146,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AT24" s="1" t="inlineStr">
+      <c r="AT24" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -8161,7 +8161,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="AW24" s="1" t="inlineStr">
+      <c r="AW24" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -8171,12 +8171,12 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="AY24" s="1" t="inlineStr">
+      <c r="AY24" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="AZ24" s="1" t="inlineStr">
+      <c r="AZ24" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -8191,54 +8191,54 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BC24" s="1" t="inlineStr">
+      <c r="BC24" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BD24" s="1" t="inlineStr">
+      <c r="BD24" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BE24" s="1" t="inlineStr">
+      <c r="BE24" s="2" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
       </c>
-      <c r="BF24" s="1" t="inlineStr">
+      <c r="BF24" s="2" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
       </c>
-      <c r="BG24" s="1" t="inlineStr">
+      <c r="BG24" s="2" t="inlineStr">
         <is>
           <t>01010</t>
         </is>
       </c>
-      <c r="BH24" s="1" t="inlineStr">
+      <c r="BH24" s="2" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BI24" s="1" t="inlineStr">
+      <c r="BI24" s="2" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
       </c>
-      <c r="BJ24" s="1" t="inlineStr">
+      <c r="BJ24" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BK24" s="1" t="inlineStr">
+      <c r="BK24" s="2" t="inlineStr">
         <is>
           <t>010110</t>
         </is>
       </c>
-      <c r="BL24" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL24" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="AQ25" s="1" t="inlineStr">
+      <c r="AQ25" s="2" t="inlineStr">
         <is>
           <t>0101</t>
         </is>
@@ -8498,7 +8498,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AZ25" s="1" t="inlineStr">
+      <c r="AZ25" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -8508,7 +8508,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="BB25" s="1" t="inlineStr">
+      <c r="BB25" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -8523,7 +8523,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="BE25" s="1" t="inlineStr">
+      <c r="BE25" s="2" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
@@ -8533,7 +8533,7 @@
           <t>01011</t>
         </is>
       </c>
-      <c r="BG25" s="1" t="inlineStr">
+      <c r="BG25" s="2" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
@@ -8548,19 +8548,19 @@
           <t>00111</t>
         </is>
       </c>
-      <c r="BJ25" s="1" t="inlineStr">
+      <c r="BJ25" s="2" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BK25" s="1" t="inlineStr">
+      <c r="BK25" s="2" t="inlineStr">
         <is>
           <t>010111</t>
         </is>
       </c>
-      <c r="BL25" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9826,7 +9826,7 @@
           <t>01111</t>
         </is>
       </c>
-      <c r="BH29" s="1" t="inlineStr">
+      <c r="BH29" s="2" t="inlineStr">
         <is>
           <t>01011</t>
         </is>
@@ -9841,14 +9841,14 @@
           <t>11011</t>
         </is>
       </c>
-      <c r="BK29" s="1" t="inlineStr">
+      <c r="BK29" s="2" t="inlineStr">
         <is>
           <t>011011</t>
         </is>
       </c>
-      <c r="BL29" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL29" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AT30" s="1" t="inlineStr">
+      <c r="AT30" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -10113,7 +10113,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="BA30" s="1" t="inlineStr">
+      <c r="BA30" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -10138,7 +10138,7 @@
           <t>01110</t>
         </is>
       </c>
-      <c r="BF30" s="1" t="inlineStr">
+      <c r="BF30" s="2" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
@@ -10148,7 +10148,7 @@
           <t>01100</t>
         </is>
       </c>
-      <c r="BH30" s="1" t="inlineStr">
+      <c r="BH30" s="2" t="inlineStr">
         <is>
           <t>01100</t>
         </is>
@@ -10158,19 +10158,19 @@
           <t>01100</t>
         </is>
       </c>
-      <c r="BJ30" s="1" t="inlineStr">
+      <c r="BJ30" s="2" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BK30" s="1" t="inlineStr">
+      <c r="BK30" s="2" t="inlineStr">
         <is>
           <t>011100</t>
         </is>
       </c>
-      <c r="BL30" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AO32" s="1" t="inlineStr">
+      <c r="AO32" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -10722,7 +10722,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="AT32" s="1" t="inlineStr">
+      <c r="AT32" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -10747,7 +10747,7 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="AY32" s="1" t="inlineStr">
+      <c r="AY32" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -10757,7 +10757,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="BA32" s="1" t="inlineStr">
+      <c r="BA32" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -10767,12 +10767,12 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="BC32" s="1" t="inlineStr">
+      <c r="BC32" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BD32" s="1" t="inlineStr">
+      <c r="BD32" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -10782,7 +10782,7 @@
           <t>01111</t>
         </is>
       </c>
-      <c r="BF32" s="1" t="inlineStr">
+      <c r="BF32" s="2" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
@@ -10792,29 +10792,29 @@
           <t>01110</t>
         </is>
       </c>
-      <c r="BH32" s="1" t="inlineStr">
+      <c r="BH32" s="2" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BI32" s="1" t="inlineStr">
+      <c r="BI32" s="2" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BJ32" s="1" t="inlineStr">
+      <c r="BJ32" s="2" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BK32" s="1" t="inlineStr">
+      <c r="BK32" s="2" t="inlineStr">
         <is>
           <t>011110</t>
         </is>
       </c>
-      <c r="BL32" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL32" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="X34" s="1" t="inlineStr">
+      <c r="X34" s="2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -11301,7 +11301,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AG34" s="1" t="inlineStr">
+      <c r="AG34" s="2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -11351,7 +11351,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AQ34" s="1" t="inlineStr">
+      <c r="AQ34" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11361,7 +11361,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AS34" s="1" t="inlineStr">
+      <c r="AS34" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11371,7 +11371,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AU34" s="1" t="inlineStr">
+      <c r="AU34" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11396,7 +11396,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AZ34" s="1" t="inlineStr">
+      <c r="AZ34" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -11406,7 +11406,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="BB34" s="1" t="inlineStr">
+      <c r="BB34" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -11421,7 +11421,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="BE34" s="1" t="inlineStr">
+      <c r="BE34" s="2" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
@@ -11431,12 +11431,12 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BG34" s="1" t="inlineStr">
+      <c r="BG34" s="2" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="BH34" s="1" t="inlineStr">
+      <c r="BH34" s="2" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
@@ -11446,19 +11446,19 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BJ34" s="1" t="inlineStr">
+      <c r="BJ34" s="2" t="inlineStr">
         <is>
           <t>00000</t>
         </is>
       </c>
-      <c r="BK34" s="1" t="inlineStr">
+      <c r="BK34" s="2" t="inlineStr">
         <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="BL34" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL34" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="X35" s="1" t="inlineStr">
+      <c r="X35" s="2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -11623,7 +11623,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AG35" s="1" t="inlineStr">
+      <c r="AG35" s="2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -11673,7 +11673,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AQ35" s="1" t="inlineStr">
+      <c r="AQ35" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11683,7 +11683,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AS35" s="1" t="inlineStr">
+      <c r="AS35" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -11693,7 +11693,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AU35" s="1" t="inlineStr">
+      <c r="AU35" s="2" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -11718,7 +11718,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AZ35" s="1" t="inlineStr">
+      <c r="AZ35" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -11728,7 +11728,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="BB35" s="1" t="inlineStr">
+      <c r="BB35" s="2" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -11743,7 +11743,7 @@
           <t>0001</t>
         </is>
       </c>
-      <c r="BE35" s="1" t="inlineStr">
+      <c r="BE35" s="2" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
@@ -11753,12 +11753,12 @@
           <t>10001</t>
         </is>
       </c>
-      <c r="BG35" s="1" t="inlineStr">
+      <c r="BG35" s="2" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
       </c>
-      <c r="BH35" s="1" t="inlineStr">
+      <c r="BH35" s="2" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
@@ -11768,19 +11768,19 @@
           <t>10001</t>
         </is>
       </c>
-      <c r="BJ35" s="1" t="inlineStr">
+      <c r="BJ35" s="2" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="BK35" s="1" t="inlineStr">
+      <c r="BK35" s="2" t="inlineStr">
         <is>
           <t>100001</t>
         </is>
       </c>
-      <c r="BL35" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL35" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12544,7 +12544,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="X38" s="1" t="inlineStr">
+      <c r="X38" s="2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -12589,7 +12589,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AG38" s="1" t="inlineStr">
+      <c r="AG38" s="2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -12639,7 +12639,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AQ38" s="1" t="inlineStr">
+      <c r="AQ38" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -12649,22 +12649,22 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AS38" s="1" t="inlineStr">
+      <c r="AS38" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AT38" s="1" t="inlineStr">
+      <c r="AT38" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AU38" s="1" t="inlineStr">
+      <c r="AU38" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AV38" s="2" t="inlineStr">
+      <c r="AV38" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -12684,17 +12684,17 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AZ38" s="1" t="inlineStr">
+      <c r="AZ38" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="BA38" s="1" t="inlineStr">
+      <c r="BA38" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
       </c>
-      <c r="BB38" s="1" t="inlineStr">
+      <c r="BB38" s="2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -12714,27 +12714,27 @@
           <t>10010</t>
         </is>
       </c>
-      <c r="BF38" s="1" t="inlineStr">
+      <c r="BF38" s="2" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
       </c>
-      <c r="BG38" s="1" t="inlineStr">
+      <c r="BG38" s="2" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="BH38" s="1" t="inlineStr">
+      <c r="BH38" s="2" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BI38" s="2" t="inlineStr">
+      <c r="BI38" s="1" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BJ38" s="1" t="inlineStr">
+      <c r="BJ38" s="2" t="inlineStr">
         <is>
           <t>00100</t>
         </is>
@@ -12866,7 +12866,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="X39" s="1" t="inlineStr">
+      <c r="X39" s="2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -12911,7 +12911,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AG39" s="1" t="inlineStr">
+      <c r="AG39" s="2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
@@ -12961,7 +12961,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AQ39" s="1" t="inlineStr">
+      <c r="AQ39" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -12971,7 +12971,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AS39" s="1" t="inlineStr">
+      <c r="AS39" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -12981,12 +12981,12 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AU39" s="1" t="inlineStr">
+      <c r="AU39" s="2" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
       </c>
-      <c r="AV39" s="2" t="inlineStr">
+      <c r="AV39" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -13006,7 +13006,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AZ39" s="1" t="inlineStr">
+      <c r="AZ39" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -13016,7 +13016,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BB39" s="1" t="inlineStr">
+      <c r="BB39" s="2" t="inlineStr">
         <is>
           <t>0001</t>
         </is>
@@ -13041,22 +13041,22 @@
           <t>10011</t>
         </is>
       </c>
-      <c r="BG39" s="1" t="inlineStr">
+      <c r="BG39" s="2" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
       </c>
-      <c r="BH39" s="1" t="inlineStr">
+      <c r="BH39" s="2" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BI39" s="2" t="inlineStr">
+      <c r="BI39" s="1" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BJ39" s="1" t="inlineStr">
+      <c r="BJ39" s="2" t="inlineStr">
         <is>
           <t>00101</t>
         </is>
@@ -13273,7 +13273,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AO40" s="1" t="inlineStr">
+      <c r="AO40" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -13298,7 +13298,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AT40" s="1" t="inlineStr">
+      <c r="AT40" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -13323,7 +13323,7 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AY40" s="1" t="inlineStr">
+      <c r="AY40" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -13333,7 +13333,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BA40" s="1" t="inlineStr">
+      <c r="BA40" s="2" t="inlineStr">
         <is>
           <t>0010</t>
         </is>
@@ -13343,12 +13343,12 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="BC40" s="1" t="inlineStr">
+      <c r="BC40" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BD40" s="1" t="inlineStr">
+      <c r="BD40" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
@@ -13358,7 +13358,7 @@
           <t>10011</t>
         </is>
       </c>
-      <c r="BF40" s="1" t="inlineStr">
+      <c r="BF40" s="2" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
@@ -13368,29 +13368,29 @@
           <t>10010</t>
         </is>
       </c>
-      <c r="BH40" s="1" t="inlineStr">
+      <c r="BH40" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BI40" s="1" t="inlineStr">
+      <c r="BI40" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BJ40" s="1" t="inlineStr">
+      <c r="BJ40" s="2" t="inlineStr">
         <is>
           <t>00110</t>
         </is>
       </c>
-      <c r="BK40" s="1" t="inlineStr">
+      <c r="BK40" s="2" t="inlineStr">
         <is>
           <t>100110</t>
         </is>
       </c>
-      <c r="BL40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL40" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="X42" s="1" t="inlineStr">
+      <c r="X42" s="2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -13847,7 +13847,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AA42" s="1" t="inlineStr">
+      <c r="AA42" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -13927,7 +13927,7 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AQ42" s="1" t="inlineStr">
+      <c r="AQ42" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -13937,7 +13937,7 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AS42" s="1" t="inlineStr">
+      <c r="AS42" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -13947,12 +13947,12 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="AU42" s="1" t="inlineStr">
+      <c r="AU42" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AV42" s="1" t="inlineStr">
+      <c r="AV42" s="2" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -13962,7 +13962,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AX42" s="1" t="inlineStr">
+      <c r="AX42" s="2" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -13997,7 +13997,7 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="BE42" s="1" t="inlineStr">
+      <c r="BE42" s="2" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
@@ -14007,17 +14007,17 @@
           <t>10100</t>
         </is>
       </c>
-      <c r="BG42" s="1" t="inlineStr">
+      <c r="BG42" s="2" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BH42" s="1" t="inlineStr">
+      <c r="BH42" s="2" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="BI42" s="1" t="inlineStr">
+      <c r="BI42" s="2" t="inlineStr">
         <is>
           <t>11000</t>
         </is>
@@ -14027,14 +14027,14 @@
           <t>01000</t>
         </is>
       </c>
-      <c r="BK42" s="1" t="inlineStr">
+      <c r="BK42" s="2" t="inlineStr">
         <is>
           <t>101000</t>
         </is>
       </c>
-      <c r="BL42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL42" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="X43" s="1" t="inlineStr">
+      <c r="X43" s="2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -14169,7 +14169,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AA43" s="1" t="inlineStr">
+      <c r="AA43" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -14249,17 +14249,17 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AQ43" s="1" t="inlineStr">
+      <c r="AQ43" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AR43" s="1" t="inlineStr">
+      <c r="AR43" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
       </c>
-      <c r="AS43" s="1" t="inlineStr">
+      <c r="AS43" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
@@ -14269,12 +14269,12 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="AU43" s="1" t="inlineStr">
+      <c r="AU43" s="2" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
       </c>
-      <c r="AV43" s="1" t="inlineStr">
+      <c r="AV43" s="2" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -14284,7 +14284,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AX43" s="1" t="inlineStr">
+      <c r="AX43" s="2" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -14319,27 +14319,27 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="BE43" s="1" t="inlineStr">
+      <c r="BE43" s="2" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BF43" s="1" t="inlineStr">
+      <c r="BF43" s="2" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BG43" s="1" t="inlineStr">
+      <c r="BG43" s="2" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BH43" s="1" t="inlineStr">
+      <c r="BH43" s="2" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
       </c>
-      <c r="BI43" s="1" t="inlineStr">
+      <c r="BI43" s="2" t="inlineStr">
         <is>
           <t>11001</t>
         </is>
@@ -14349,14 +14349,14 @@
           <t>01001</t>
         </is>
       </c>
-      <c r="BK43" s="1" t="inlineStr">
+      <c r="BK43" s="2" t="inlineStr">
         <is>
           <t>101001</t>
         </is>
       </c>
-      <c r="BL43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL43" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AR45" s="1" t="inlineStr">
+      <c r="AR45" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -14968,12 +14968,12 @@
           <t>10101</t>
         </is>
       </c>
-      <c r="BF45" s="1" t="inlineStr">
+      <c r="BF45" s="2" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BG45" s="1" t="inlineStr">
+      <c r="BG45" s="2" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
@@ -14993,14 +14993,14 @@
           <t>01011</t>
         </is>
       </c>
-      <c r="BK45" s="1" t="inlineStr">
+      <c r="BK45" s="2" t="inlineStr">
         <is>
           <t>101011</t>
         </is>
       </c>
-      <c r="BL45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL45" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15120,7 +15120,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="X46" s="1" t="inlineStr">
+      <c r="X46" s="2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -15135,7 +15135,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AA46" s="1" t="inlineStr">
+      <c r="AA46" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -15210,12 +15210,12 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AP46" s="1" t="inlineStr">
+      <c r="AP46" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
       </c>
-      <c r="AQ46" s="1" t="inlineStr">
+      <c r="AQ46" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -15225,32 +15225,32 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AS46" s="1" t="inlineStr">
+      <c r="AS46" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AT46" s="1" t="inlineStr">
+      <c r="AT46" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AU46" s="1" t="inlineStr">
+      <c r="AU46" s="2" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AV46" s="1" t="inlineStr">
+      <c r="AV46" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AW46" s="1" t="inlineStr">
+      <c r="AW46" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AX46" s="1" t="inlineStr">
+      <c r="AX46" s="2" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -15285,27 +15285,27 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="BE46" s="1" t="inlineStr">
+      <c r="BE46" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BF46" s="1" t="inlineStr">
+      <c r="BF46" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BG46" s="1" t="inlineStr">
+      <c r="BG46" s="2" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BH46" s="1" t="inlineStr">
+      <c r="BH46" s="2" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BI46" s="1" t="inlineStr">
+      <c r="BI46" s="2" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
@@ -15315,14 +15315,14 @@
           <t>01100</t>
         </is>
       </c>
-      <c r="BK46" s="1" t="inlineStr">
+      <c r="BK46" s="2" t="inlineStr">
         <is>
           <t>101100</t>
         </is>
       </c>
-      <c r="BL46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL46" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15442,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="X47" s="1" t="inlineStr">
+      <c r="X47" s="2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -15457,7 +15457,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AA47" s="1" t="inlineStr">
+      <c r="AA47" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -15532,22 +15532,22 @@
           <t>101</t>
         </is>
       </c>
-      <c r="AP47" s="1" t="inlineStr">
+      <c r="AP47" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
       </c>
-      <c r="AQ47" s="1" t="inlineStr">
+      <c r="AQ47" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="AR47" s="1" t="inlineStr">
+      <c r="AR47" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
       </c>
-      <c r="AS47" s="1" t="inlineStr">
+      <c r="AS47" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -15557,12 +15557,12 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AU47" s="1" t="inlineStr">
+      <c r="AU47" s="2" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
       </c>
-      <c r="AV47" s="1" t="inlineStr">
+      <c r="AV47" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -15572,7 +15572,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AX47" s="1" t="inlineStr">
+      <c r="AX47" s="2" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -15607,27 +15607,27 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="BE47" s="1" t="inlineStr">
+      <c r="BE47" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BF47" s="1" t="inlineStr">
+      <c r="BF47" s="2" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BG47" s="1" t="inlineStr">
+      <c r="BG47" s="2" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BH47" s="1" t="inlineStr">
+      <c r="BH47" s="2" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BI47" s="1" t="inlineStr">
+      <c r="BI47" s="2" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
@@ -15637,14 +15637,14 @@
           <t>01101</t>
         </is>
       </c>
-      <c r="BK47" s="1" t="inlineStr">
+      <c r="BK47" s="2" t="inlineStr">
         <is>
           <t>101101</t>
         </is>
       </c>
-      <c r="BL47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL47" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15849,12 +15849,12 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AO48" s="1" t="inlineStr">
+      <c r="AO48" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="AP48" s="1" t="inlineStr">
+      <c r="AP48" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -15874,7 +15874,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AT48" s="1" t="inlineStr">
+      <c r="AT48" s="2" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -15889,7 +15889,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AW48" s="1" t="inlineStr">
+      <c r="AW48" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -15899,12 +15899,12 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AY48" s="1" t="inlineStr">
+      <c r="AY48" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AZ48" s="1" t="inlineStr">
+      <c r="AZ48" s="2" t="inlineStr">
         <is>
           <t>0111</t>
         </is>
@@ -15919,22 +15919,22 @@
           <t>0110</t>
         </is>
       </c>
-      <c r="BC48" s="1" t="inlineStr">
+      <c r="BC48" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BD48" s="1" t="inlineStr">
+      <c r="BD48" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BE48" s="1" t="inlineStr">
+      <c r="BE48" s="2" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BF48" s="1" t="inlineStr">
+      <c r="BF48" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
@@ -15944,29 +15944,29 @@
           <t>10110</t>
         </is>
       </c>
-      <c r="BH48" s="1" t="inlineStr">
+      <c r="BH48" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BI48" s="1" t="inlineStr">
+      <c r="BI48" s="2" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BJ48" s="1" t="inlineStr">
+      <c r="BJ48" s="2" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="BK48" s="1" t="inlineStr">
+      <c r="BK48" s="2" t="inlineStr">
         <is>
           <t>101110</t>
         </is>
       </c>
-      <c r="BL48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL48" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16176,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AP49" s="1" t="inlineStr">
+      <c r="AP49" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -16186,7 +16186,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AR49" s="1" t="inlineStr">
+      <c r="AR49" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -16226,7 +16226,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AZ49" s="1" t="inlineStr">
+      <c r="AZ49" s="2" t="inlineStr">
         <is>
           <t>0111</t>
         </is>
@@ -16251,17 +16251,17 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="BE49" s="1" t="inlineStr">
+      <c r="BE49" s="2" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BF49" s="1" t="inlineStr">
+      <c r="BF49" s="2" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BG49" s="1" t="inlineStr">
+      <c r="BG49" s="2" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
@@ -16276,19 +16276,19 @@
           <t>11111</t>
         </is>
       </c>
-      <c r="BJ49" s="1" t="inlineStr">
+      <c r="BJ49" s="2" t="inlineStr">
         <is>
           <t>01111</t>
         </is>
       </c>
-      <c r="BK49" s="1" t="inlineStr">
+      <c r="BK49" s="2" t="inlineStr">
         <is>
           <t>101111</t>
         </is>
       </c>
-      <c r="BL49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL49" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17157,7 +17157,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AS52" s="2" t="inlineStr">
+      <c r="AS52" s="1" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -17192,7 +17192,7 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AZ52" s="2" t="inlineStr">
+      <c r="AZ52" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -17217,7 +17217,7 @@
           <t>0010</t>
         </is>
       </c>
-      <c r="BE52" s="2" t="inlineStr">
+      <c r="BE52" s="1" t="inlineStr">
         <is>
           <t>11001</t>
         </is>
@@ -17232,7 +17232,7 @@
           <t>11010</t>
         </is>
       </c>
-      <c r="BH52" s="2" t="inlineStr">
+      <c r="BH52" s="1" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
@@ -17242,19 +17242,19 @@
           <t>10010</t>
         </is>
       </c>
-      <c r="BJ52" s="2" t="inlineStr">
+      <c r="BJ52" s="1" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
       </c>
-      <c r="BK52" s="2" t="inlineStr">
+      <c r="BK52" s="1" t="inlineStr">
         <is>
           <t>110010</t>
         </is>
       </c>
-      <c r="BL52" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL52" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17479,7 +17479,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AS53" s="2" t="inlineStr">
+      <c r="AS53" s="1" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -17514,7 +17514,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="AZ53" s="2" t="inlineStr">
+      <c r="AZ53" s="1" t="inlineStr">
         <is>
           <t>1001</t>
         </is>
@@ -17524,7 +17524,7 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="BB53" s="1" t="inlineStr">
+      <c r="BB53" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -17539,7 +17539,7 @@
           <t>0011</t>
         </is>
       </c>
-      <c r="BE53" s="2" t="inlineStr">
+      <c r="BE53" s="1" t="inlineStr">
         <is>
           <t>11001</t>
         </is>
@@ -17549,12 +17549,12 @@
           <t>11001</t>
         </is>
       </c>
-      <c r="BG53" s="1" t="inlineStr">
+      <c r="BG53" s="2" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
       </c>
-      <c r="BH53" s="2" t="inlineStr">
+      <c r="BH53" s="1" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -17801,7 +17801,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AS54" s="2" t="inlineStr">
+      <c r="AS54" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -17816,7 +17816,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AV54" s="2" t="inlineStr">
+      <c r="AV54" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -17836,7 +17836,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AZ54" s="2" t="inlineStr">
+      <c r="AZ54" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -17861,7 +17861,7 @@
           <t>0100</t>
         </is>
       </c>
-      <c r="BE54" s="2" t="inlineStr">
+      <c r="BE54" s="1" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
@@ -17876,29 +17876,29 @@
           <t>11000</t>
         </is>
       </c>
-      <c r="BH54" s="2" t="inlineStr">
+      <c r="BH54" s="1" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BI54" s="2" t="inlineStr">
+      <c r="BI54" s="1" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BJ54" s="2" t="inlineStr">
+      <c r="BJ54" s="1" t="inlineStr">
         <is>
           <t>10100</t>
         </is>
       </c>
-      <c r="BK54" s="2" t="inlineStr">
+      <c r="BK54" s="1" t="inlineStr">
         <is>
           <t>110100</t>
         </is>
       </c>
-      <c r="BL54" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL54" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18123,7 +18123,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AS55" s="2" t="inlineStr">
+      <c r="AS55" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -18138,7 +18138,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AV55" s="2" t="inlineStr">
+      <c r="AV55" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -18158,7 +18158,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AZ55" s="2" t="inlineStr">
+      <c r="AZ55" s="1" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
@@ -18183,7 +18183,7 @@
           <t>0101</t>
         </is>
       </c>
-      <c r="BE55" s="2" t="inlineStr">
+      <c r="BE55" s="1" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
@@ -18198,29 +18198,29 @@
           <t>11001</t>
         </is>
       </c>
-      <c r="BH55" s="2" t="inlineStr">
+      <c r="BH55" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BI55" s="2" t="inlineStr">
+      <c r="BI55" s="1" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BJ55" s="2" t="inlineStr">
+      <c r="BJ55" s="1" t="inlineStr">
         <is>
           <t>10101</t>
         </is>
       </c>
-      <c r="BK55" s="2" t="inlineStr">
+      <c r="BK55" s="1" t="inlineStr">
         <is>
           <t>110101</t>
         </is>
       </c>
-      <c r="BL55" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL55" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18425,7 +18425,7 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AO56" s="1" t="inlineStr">
+      <c r="AO56" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -18475,12 +18475,12 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="AY56" s="1" t="inlineStr">
+      <c r="AY56" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AZ56" s="1" t="inlineStr">
+      <c r="AZ56" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -18495,17 +18495,17 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BC56" s="1" t="inlineStr">
+      <c r="BC56" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BD56" s="1" t="inlineStr">
+      <c r="BD56" s="2" t="inlineStr">
         <is>
           <t>0110</t>
         </is>
       </c>
-      <c r="BE56" s="1" t="inlineStr">
+      <c r="BE56" s="2" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -18520,29 +18520,29 @@
           <t>11010</t>
         </is>
       </c>
-      <c r="BH56" s="1" t="inlineStr">
+      <c r="BH56" s="2" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BI56" s="1" t="inlineStr">
+      <c r="BI56" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BJ56" s="1" t="inlineStr">
+      <c r="BJ56" s="2" t="inlineStr">
         <is>
           <t>10110</t>
         </is>
       </c>
-      <c r="BK56" s="1" t="inlineStr">
+      <c r="BK56" s="2" t="inlineStr">
         <is>
           <t>110110</t>
         </is>
       </c>
-      <c r="BL56" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL56" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18802,7 +18802,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AZ57" s="1" t="inlineStr">
+      <c r="AZ57" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -18812,7 +18812,7 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="BB57" s="1" t="inlineStr">
+      <c r="BB57" s="2" t="inlineStr">
         <is>
           <t>1011</t>
         </is>
@@ -18827,7 +18827,7 @@
           <t>0111</t>
         </is>
       </c>
-      <c r="BE57" s="1" t="inlineStr">
+      <c r="BE57" s="2" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -18837,7 +18837,7 @@
           <t>11011</t>
         </is>
       </c>
-      <c r="BG57" s="1" t="inlineStr">
+      <c r="BG57" s="2" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -18852,19 +18852,19 @@
           <t>10111</t>
         </is>
       </c>
-      <c r="BJ57" s="1" t="inlineStr">
+      <c r="BJ57" s="2" t="inlineStr">
         <is>
           <t>10111</t>
         </is>
       </c>
-      <c r="BK57" s="1" t="inlineStr">
+      <c r="BK57" s="2" t="inlineStr">
         <is>
           <t>110111</t>
         </is>
       </c>
-      <c r="BL57" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="BL57" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
           <t>00</t>
         </is>
       </c>
-      <c r="V58" s="2" t="inlineStr">
+      <c r="V58" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -18999,7 +18999,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AA58" s="1" t="inlineStr">
+      <c r="AA58" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -19074,7 +19074,7 @@
           <t>000</t>
         </is>
       </c>
-      <c r="AP58" s="2" t="inlineStr">
+      <c r="AP58" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -19084,7 +19084,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AR58" s="2" t="inlineStr">
+      <c r="AR58" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -19104,7 +19104,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AV58" s="1" t="inlineStr">
+      <c r="AV58" s="2" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -19114,7 +19114,7 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AX58" s="1" t="inlineStr">
+      <c r="AX58" s="2" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -19154,7 +19154,7 @@
           <t>11100</t>
         </is>
       </c>
-      <c r="BF58" s="2" t="inlineStr">
+      <c r="BF58" s="1" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
@@ -19169,7 +19169,7 @@
           <t>11000</t>
         </is>
       </c>
-      <c r="BI58" s="1" t="inlineStr">
+      <c r="BI58" s="2" t="inlineStr">
         <is>
           <t>11000</t>
         </is>
@@ -19296,7 +19296,7 @@
           <t>01</t>
         </is>
       </c>
-      <c r="V59" s="2" t="inlineStr">
+      <c r="V59" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -19321,7 +19321,7 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AA59" s="1" t="inlineStr">
+      <c r="AA59" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -19396,7 +19396,7 @@
           <t>001</t>
         </is>
       </c>
-      <c r="AP59" s="2" t="inlineStr">
+      <c r="AP59" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -19406,7 +19406,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AR59" s="2" t="inlineStr">
+      <c r="AR59" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
@@ -19426,7 +19426,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AV59" s="1" t="inlineStr">
+      <c r="AV59" s="2" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -19436,7 +19436,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AX59" s="1" t="inlineStr">
+      <c r="AX59" s="2" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -19476,7 +19476,7 @@
           <t>11100</t>
         </is>
       </c>
-      <c r="BF59" s="2" t="inlineStr">
+      <c r="BF59" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
@@ -19491,7 +19491,7 @@
           <t>11001</t>
         </is>
       </c>
-      <c r="BI59" s="1" t="inlineStr">
+      <c r="BI59" s="2" t="inlineStr">
         <is>
           <t>11001</t>
         </is>
@@ -19618,7 +19618,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="V60" s="2" t="inlineStr">
+      <c r="V60" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -19718,22 +19718,22 @@
           <t>010</t>
         </is>
       </c>
-      <c r="AP60" s="2" t="inlineStr">
+      <c r="AP60" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AQ60" s="2" t="inlineStr">
+      <c r="AQ60" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AR60" s="2" t="inlineStr">
+      <c r="AR60" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AS60" s="2" t="inlineStr">
+      <c r="AS60" s="1" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -19793,22 +19793,22 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BE60" s="2" t="inlineStr">
+      <c r="BE60" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BF60" s="2" t="inlineStr">
+      <c r="BF60" s="1" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BG60" s="2" t="inlineStr">
+      <c r="BG60" s="1" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BH60" s="2" t="inlineStr">
+      <c r="BH60" s="1" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
@@ -19823,14 +19823,14 @@
           <t>11010</t>
         </is>
       </c>
-      <c r="BK60" s="2" t="inlineStr">
+      <c r="BK60" s="1" t="inlineStr">
         <is>
           <t>111010</t>
         </is>
       </c>
-      <c r="BL60" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL60" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -19940,7 +19940,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="V61" s="2" t="inlineStr">
+      <c r="V61" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -20040,22 +20040,22 @@
           <t>011</t>
         </is>
       </c>
-      <c r="AP61" s="2" t="inlineStr">
+      <c r="AP61" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AQ61" s="2" t="inlineStr">
+      <c r="AQ61" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AR61" s="2" t="inlineStr">
+      <c r="AR61" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AS61" s="2" t="inlineStr">
+      <c r="AS61" s="1" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -20115,22 +20115,22 @@
           <t>1011</t>
         </is>
       </c>
-      <c r="BE61" s="2" t="inlineStr">
+      <c r="BE61" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BF61" s="2" t="inlineStr">
+      <c r="BF61" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BG61" s="2" t="inlineStr">
+      <c r="BG61" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
       </c>
-      <c r="BH61" s="2" t="inlineStr">
+      <c r="BH61" s="1" t="inlineStr">
         <is>
           <t>11011</t>
         </is>
@@ -20145,14 +20145,14 @@
           <t>11011</t>
         </is>
       </c>
-      <c r="BK61" s="2" t="inlineStr">
+      <c r="BK61" s="1" t="inlineStr">
         <is>
           <t>111011</t>
         </is>
       </c>
-      <c r="BL61" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL61" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -20262,7 +20262,7 @@
           <t>00</t>
         </is>
       </c>
-      <c r="V62" s="2" t="inlineStr">
+      <c r="V62" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -20287,7 +20287,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AA62" s="1" t="inlineStr">
+      <c r="AA62" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -20362,7 +20362,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="AP62" s="2" t="inlineStr">
+      <c r="AP62" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
@@ -20372,12 +20372,12 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AR62" s="2" t="inlineStr">
+      <c r="AR62" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AS62" s="2" t="inlineStr">
+      <c r="AS62" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -20392,17 +20392,17 @@
           <t>1100</t>
         </is>
       </c>
-      <c r="AV62" s="1" t="inlineStr">
+      <c r="AV62" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AW62" s="1" t="inlineStr">
+      <c r="AW62" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AX62" s="1" t="inlineStr">
+      <c r="AX62" s="2" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
@@ -20417,7 +20417,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="BA62" s="1" t="inlineStr">
+      <c r="BA62" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -20452,17 +20452,17 @@
           <t>11100</t>
         </is>
       </c>
-      <c r="BH62" s="2" t="inlineStr">
+      <c r="BH62" s="1" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BI62" s="1" t="inlineStr">
+      <c r="BI62" s="2" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BJ62" s="1" t="inlineStr">
+      <c r="BJ62" s="2" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
@@ -20584,7 +20584,7 @@
           <t>01</t>
         </is>
       </c>
-      <c r="V63" s="2" t="inlineStr">
+      <c r="V63" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -20609,7 +20609,7 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AA63" s="1" t="inlineStr">
+      <c r="AA63" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -20684,7 +20684,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="AP63" s="2" t="inlineStr">
+      <c r="AP63" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
@@ -20694,12 +20694,12 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AR63" s="2" t="inlineStr">
+      <c r="AR63" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AS63" s="2" t="inlineStr">
+      <c r="AS63" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -20714,7 +20714,7 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AV63" s="1" t="inlineStr">
+      <c r="AV63" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -20724,7 +20724,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AX63" s="1" t="inlineStr">
+      <c r="AX63" s="2" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
@@ -20764,7 +20764,7 @@
           <t>11110</t>
         </is>
       </c>
-      <c r="BF63" s="2" t="inlineStr">
+      <c r="BF63" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
@@ -20774,12 +20774,12 @@
           <t>11101</t>
         </is>
       </c>
-      <c r="BH63" s="2" t="inlineStr">
+      <c r="BH63" s="1" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
       </c>
-      <c r="BI63" s="1" t="inlineStr">
+      <c r="BI63" s="2" t="inlineStr">
         <is>
           <t>11101</t>
         </is>
@@ -20906,7 +20906,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="V64" s="2" t="inlineStr">
+      <c r="V64" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -21001,22 +21001,22 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AO64" s="1" t="inlineStr">
+      <c r="AO64" s="2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="AP64" s="2" t="inlineStr">
+      <c r="AP64" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AQ64" s="2" t="inlineStr">
+      <c r="AQ64" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AR64" s="2" t="inlineStr">
+      <c r="AR64" s="1" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -21041,7 +21041,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="AW64" s="1" t="inlineStr">
+      <c r="AW64" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -21051,7 +21051,7 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="AY64" s="1" t="inlineStr">
+      <c r="AY64" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -21061,7 +21061,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="BA64" s="1" t="inlineStr">
+      <c r="BA64" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
@@ -21071,17 +21071,17 @@
           <t>1110</t>
         </is>
       </c>
-      <c r="BC64" s="1" t="inlineStr">
+      <c r="BC64" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BD64" s="1" t="inlineStr">
+      <c r="BD64" s="2" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="BE64" s="2" t="inlineStr">
+      <c r="BE64" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
@@ -21091,22 +21091,22 @@
           <t>11110</t>
         </is>
       </c>
-      <c r="BG64" s="2" t="inlineStr">
+      <c r="BG64" s="1" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BH64" s="1" t="inlineStr">
+      <c r="BH64" s="2" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BI64" s="1" t="inlineStr">
+      <c r="BI64" s="2" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
       </c>
-      <c r="BJ64" s="1" t="inlineStr">
+      <c r="BJ64" s="2" t="inlineStr">
         <is>
           <t>11110</t>
         </is>
@@ -21228,7 +21228,7 @@
           <t>11</t>
         </is>
       </c>
-      <c r="V65" s="2" t="inlineStr">
+      <c r="V65" s="1" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -21328,17 +21328,17 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AP65" s="2" t="inlineStr">
+      <c r="AP65" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AQ65" s="2" t="inlineStr">
+      <c r="AQ65" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="AR65" s="2" t="inlineStr">
+      <c r="AR65" s="1" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
@@ -21403,17 +21403,17 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="BE65" s="2" t="inlineStr">
+      <c r="BE65" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
       </c>
-      <c r="BF65" s="2" t="inlineStr">
+      <c r="BF65" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
       </c>
-      <c r="BG65" s="2" t="inlineStr">
+      <c r="BG65" s="1" t="inlineStr">
         <is>
           <t>11111</t>
         </is>
@@ -21433,14 +21433,14 @@
           <t>11111</t>
         </is>
       </c>
-      <c r="BK65" s="2" t="inlineStr">
+      <c r="BK65" s="1" t="inlineStr">
         <is>
           <t>111111</t>
         </is>
       </c>
-      <c r="BL65" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="BL65" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
